--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69724ACD-9C89-44C3-98CB-280895A6F2BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFEC4CD-B7C1-4D46-A1BC-6F6F544094F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,33 +847,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EFFA40-4485-493A-82C7-887F718EE25A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEBFCE-F438-4C78-AE7B-BC2B1F2C30AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>8000</v>
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEBFCE-F438-4C78-AE7B-BC2B1F2C30AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
